--- a/Excel/AIConfig.xlsx
+++ b/Excel/AIConfig.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="14250" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
     <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
+    <sheet name="AIConfig_Hunter" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>cs</t>
   </si>
@@ -75,6 +76,18 @@
   </si>
   <si>
     <t>巡逻</t>
+  </si>
+  <si>
+    <t>AI_WaitAndNewTurn</t>
+  </si>
+  <si>
+    <t>等待并结束自己回合</t>
+  </si>
+  <si>
+    <t>AI_OthersTurn</t>
+  </si>
+  <si>
+    <t>对方回合</t>
   </si>
 </sst>
 </file>
@@ -82,18 +95,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -102,15 +121,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -118,36 +192,21 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -155,106 +214,60 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -274,37 +287,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,19 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,121 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,8 +484,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +520,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -503,6 +540,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,251 +578,216 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="15"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1049,16 +1062,16 @@
       <selection activeCell="G4" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.60952380952381" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.6285714285714" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8571428571429" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.8761904761905" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.24761904761905" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3714285714286" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -1088,66 +1101,66 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1169,7 +1182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="3:7">
+    <row r="7" s="3" customFormat="1" ht="16.5" spans="3:7">
       <c r="C7" s="2">
         <f>D7*100+E7</f>
         <v>102</v>
@@ -1198,20 +1211,20 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="C3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.60833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.60952380952381" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.6285714285714" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8571428571429" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.8761904761905" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.24761904761905" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3714285714286" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -1239,66 +1252,66 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1324,4 +1337,125 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="26.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="23.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="3:8">
+      <c r="C6" s="2">
+        <f>D6*100+E6</f>
+        <v>301</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="3:7">
+      <c r="C7" s="2">
+        <f>D7*100+E7</f>
+        <v>302</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>